--- a/tests/fixtures/orderforms/1508.33.mip_rna.xlsx
+++ b/tests/fixtures/orderforms/1508.33.mip_rna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF15693-D9ED-3B41-BC0A-1BBD1E33E29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C5DCB8-51F1-B042-9B5D-A4828AF4ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5591,7 +5591,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5601,57 +5601,57 @@
     <col min="3" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="91" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="164" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="96" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A16" s="96" t="s">
         <v>602</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="A74" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y2W5z/o3EQJwGgHsnPBOnoM1WkfUBSxzCRSc9r9DtU7jN3FYLdHWg/VpFRvIo4sPJhcLVYBfpRtY3GbdJ0Ln1Q==" saltValue="L+RSgvBGi3JvnrVNU3PelQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HH1PugX67brJCDBMpaRlUTYJUaPjbJ67Fetkvc30gZYlKuQzhzkw9xdkJp6cD0fjBKalnUVSOkZNT625CffBPw==" saltValue="6v/sV1QMsi1vJgblMj4cAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5928,8 +5928,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.mip_rna.xlsx
+++ b/tests/fixtures/orderforms/1508.33.mip_rna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C5DCB8-51F1-B042-9B5D-A4828AF4ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ABDB8E-6EEA-4741-8517-8F34E80D423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="853">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3691,6 +3691,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>UDF/Sample Buffer</t>
   </si>
 </sst>
 </file>
@@ -4463,7 +4466,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="16" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4900,6 +4903,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5928,8 +5934,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -11164,7 +11170,7 @@
       <c r="AMM6"/>
       <c r="AMN6"/>
     </row>
-    <row r="7" spans="1:1028" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1028" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -12239,60 +12245,60 @@
       <c r="AL8" s="30"/>
     </row>
     <row r="9" spans="1:1028" s="35" customFormat="1" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="167"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="168"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="169" t="s">
+      <c r="P9" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="169"/>
+      <c r="Q9" s="170"/>
       <c r="R9" s="34"/>
       <c r="S9" s="108" t="s">
         <v>713</v>
       </c>
       <c r="T9"/>
-      <c r="U9" s="170" t="s">
+      <c r="U9" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="173"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="33" t="s">
         <v>14</v>
       </c>
       <c r="AA9" s="34"/>
-      <c r="AB9" s="168" t="s">
+      <c r="AB9" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="168"/>
-      <c r="AD9" s="168"/>
+      <c r="AC9" s="169"/>
+      <c r="AD9" s="169"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="129" t="s">
         <v>605</v>
       </c>
       <c r="AG9" s="32"/>
-      <c r="AH9" s="173" t="s">
+      <c r="AH9" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="AI9" s="174"/>
-      <c r="AJ9" s="174"/>
-      <c r="AK9" s="174"/>
-      <c r="AL9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
+      <c r="AK9" s="175"/>
+      <c r="AL9" s="176"/>
     </row>
     <row r="10" spans="1:1028" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
@@ -12315,9 +12321,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S10"/>
       <c r="U10" s="102"/>
       <c r="V10" s="32"/>
       <c r="W10" s="37"/>
@@ -13378,8 +13382,8 @@
         <v>28</v>
       </c>
       <c r="R11" s="46"/>
-      <c r="S11" s="108" t="s">
-        <v>713</v>
+      <c r="S11" s="165" t="s">
+        <v>852</v>
       </c>
       <c r="T11"/>
       <c r="U11" s="38" t="s">
@@ -13450,9 +13454,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="103"/>
       <c r="V12" s="47"/>
@@ -72407,7 +72409,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jwGORLOaFqDkhRWjhEEWIRxpYDG5S952p8rqPPqkNWXUwBwa3tMhgfIJDj8Lu1bgIlIbfZaTf6cX/btXLsOVUQ==" saltValue="1qoAJ52cH2SXgchVkgIfYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5mliNVegJ4TTC/LsihphVqRXoynFJAJQoWermSSydwOInAKY8i3uPNAkF6aoZA0/CPymk+FQJtG7dnFUlGenAg==" saltValue="61dVA0XN5HovE920jGJ33Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>

--- a/tests/fixtures/orderforms/1508.33.mip_rna.xlsx
+++ b/tests/fixtures/orderforms/1508.33.mip_rna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{557F9866-0DA6-384F-A4DC-0682B6712AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90299A39-3228-444B-B54F-DE0506225190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33800" yWindow="-12740" windowWidth="41360" windowHeight="23140" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="850">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3318,9 +3318,6 @@
     <t>miprnasample2</t>
   </si>
   <si>
-    <t>RNAPOAR075</t>
-  </si>
-  <si>
     <t>miprnasubject2</t>
   </si>
   <si>
@@ -3336,9 +3333,6 @@
     <t>miprnacase2</t>
   </si>
   <si>
-    <t>RNLPOAR050</t>
-  </si>
-  <si>
     <t>miprnasubject4</t>
   </si>
   <si>
@@ -3348,9 +3342,6 @@
     <t>miprnacase3</t>
   </si>
   <si>
-    <t>RNLPOAR075</t>
-  </si>
-  <si>
     <t>miprnasubject5</t>
   </si>
   <si>
@@ -3358,9 +3349,6 @@
   </si>
   <si>
     <t>miprnacase4</t>
-  </si>
-  <si>
-    <t>RNLPOAR100</t>
   </si>
   <si>
     <t>miprnasubject6</t>
@@ -5932,8 +5920,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13634,7 +13622,7 @@
         <v>724</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>68</v>
@@ -13662,37 +13650,23 @@
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="70" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Q15" s="85" t="s">
         <v>75</v>
       </c>
       <c r="R15" s="74"/>
       <c r="S15" s="73"/>
-      <c r="U15" s="88" t="s">
-        <v>472</v>
-      </c>
-      <c r="V15" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="W15" s="65" t="s">
-        <v>726</v>
-      </c>
-      <c r="X15" s="71" t="s">
-        <v>729</v>
-      </c>
+      <c r="U15" s="88"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="71"/>
       <c r="Y15" s="72"/>
       <c r="Z15" s="87"/>
       <c r="AA15" s="74"/>
-      <c r="AB15" s="90">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="90">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="89" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="89"/>
       <c r="AE15" s="49"/>
       <c r="AF15" s="89"/>
       <c r="AG15" s="49"/>
@@ -13703,13 +13677,11 @@
         <v>5</v>
       </c>
       <c r="AJ15" s="70" t="s">
-        <v>852</v>
-      </c>
-      <c r="AK15" s="88">
-        <v>10</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="AK15" s="88"/>
       <c r="AL15" s="70" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -14719,7 +14691,7 @@
         <v>724</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>727</v>
+        <v>489</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>79</v>
@@ -14740,7 +14712,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="107" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N16" s="84" t="s">
         <v>77</v>
@@ -14750,12 +14722,8 @@
       <c r="Q16" s="85"/>
       <c r="R16" s="74"/>
       <c r="S16" s="73"/>
-      <c r="U16" s="88" t="s">
-        <v>472</v>
-      </c>
-      <c r="V16" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U16" s="88"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="141"/>
       <c r="X16" s="142"/>
       <c r="Y16" s="72"/>
@@ -14763,9 +14731,7 @@
       <c r="AA16" s="74"/>
       <c r="AB16" s="90"/>
       <c r="AC16" s="90"/>
-      <c r="AD16" s="89" t="s">
-        <v>88</v>
-      </c>
+      <c r="AD16" s="89"/>
       <c r="AE16" s="49"/>
       <c r="AF16" s="89"/>
       <c r="AG16" s="49"/>
@@ -15769,7 +15735,7 @@
     </row>
     <row r="17" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>69</v>
@@ -15805,7 +15771,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="107" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N17" s="84" t="s">
         <v>77</v>
@@ -15815,12 +15781,8 @@
       <c r="Q17" s="85"/>
       <c r="R17" s="74"/>
       <c r="S17" s="73"/>
-      <c r="U17" s="88" t="s">
-        <v>472</v>
-      </c>
-      <c r="V17" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U17" s="88"/>
+      <c r="V17" s="102"/>
       <c r="W17" s="141"/>
       <c r="X17" s="142"/>
       <c r="Y17" s="72"/>
@@ -16830,7 +16792,7 @@
     </row>
     <row r="18" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>69</v>
@@ -16842,10 +16804,10 @@
         <v>516</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="G18" s="68" t="s">
         <v>90</v>
@@ -16866,7 +16828,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="107" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N18" s="84" t="s">
         <v>77</v>
@@ -16876,12 +16838,8 @@
       <c r="Q18" s="85"/>
       <c r="R18" s="74"/>
       <c r="S18" s="73"/>
-      <c r="U18" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="V18" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U18" s="88"/>
+      <c r="V18" s="102"/>
       <c r="W18" s="141"/>
       <c r="X18" s="142"/>
       <c r="Y18" s="72"/>
@@ -17891,7 +17849,7 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="65" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B19" s="66" t="s">
         <v>69</v>
@@ -17903,10 +17861,10 @@
         <v>516</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>737</v>
+        <v>489</v>
       </c>
       <c r="G19" s="68" t="s">
         <v>90</v>
@@ -17927,7 +17885,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="107" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N19" s="84" t="s">
         <v>77</v>
@@ -17937,12 +17895,8 @@
       <c r="Q19" s="85"/>
       <c r="R19" s="74"/>
       <c r="S19" s="73"/>
-      <c r="U19" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="V19" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U19" s="88"/>
+      <c r="V19" s="102"/>
       <c r="W19" s="141"/>
       <c r="X19" s="142"/>
       <c r="Y19" s="72"/>
@@ -18952,7 +18906,7 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B20" s="66" t="s">
         <v>69</v>
@@ -18964,10 +18918,10 @@
         <v>516</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>741</v>
+        <v>603</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>90</v>
@@ -18988,7 +18942,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="107" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="N20" s="84" t="s">
         <v>77</v>
@@ -18998,12 +18952,8 @@
       <c r="Q20" s="85"/>
       <c r="R20" s="74"/>
       <c r="S20" s="73"/>
-      <c r="U20" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="V20" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U20" s="88"/>
+      <c r="V20" s="102"/>
       <c r="W20" s="141"/>
       <c r="X20" s="142"/>
       <c r="Y20" s="72"/>
@@ -20013,7 +19963,7 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="65" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>69</v>
@@ -20025,10 +19975,10 @@
         <v>516</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>90</v>
@@ -20049,7 +19999,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="107" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="N21" s="84" t="s">
         <v>77</v>
@@ -20059,12 +20009,8 @@
       <c r="Q21" s="85"/>
       <c r="R21" s="74"/>
       <c r="S21" s="73"/>
-      <c r="U21" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="V21" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U21" s="88"/>
+      <c r="V21" s="102"/>
       <c r="W21" s="141"/>
       <c r="X21" s="142"/>
       <c r="Y21" s="72"/>
@@ -21074,7 +21020,7 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="65" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>69</v>
@@ -21086,10 +21032,10 @@
         <v>516</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>727</v>
+        <v>489</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>90</v>
@@ -21110,7 +21056,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="107" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="N22" s="84" t="s">
         <v>77</v>
@@ -21120,12 +21066,8 @@
       <c r="Q22" s="85"/>
       <c r="R22" s="74"/>
       <c r="S22" s="73"/>
-      <c r="U22" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="V22" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U22" s="88"/>
+      <c r="V22" s="102"/>
       <c r="W22" s="141"/>
       <c r="X22" s="142"/>
       <c r="Y22" s="72"/>
@@ -22135,7 +22077,7 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="65" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>69</v>
@@ -22147,10 +22089,10 @@
         <v>516</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G23" s="68" t="s">
         <v>90</v>
@@ -22171,7 +22113,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="107" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="N23" s="84" t="s">
         <v>77</v>
@@ -22181,12 +22123,8 @@
       <c r="Q23" s="85"/>
       <c r="R23" s="74"/>
       <c r="S23" s="73"/>
-      <c r="U23" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="V23" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U23" s="88"/>
+      <c r="V23" s="102"/>
       <c r="W23" s="141"/>
       <c r="X23" s="142"/>
       <c r="Y23" s="72"/>
@@ -23196,7 +23134,7 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B24" s="66" t="s">
         <v>69</v>
@@ -23208,10 +23146,10 @@
         <v>516</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>90</v>
@@ -23232,7 +23170,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="107" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="N24" s="84" t="s">
         <v>77</v>
@@ -23242,12 +23180,8 @@
       <c r="Q24" s="85"/>
       <c r="R24" s="74"/>
       <c r="S24" s="73"/>
-      <c r="U24" s="88" t="s">
-        <v>473</v>
-      </c>
-      <c r="V24" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U24" s="88"/>
+      <c r="V24" s="102"/>
       <c r="W24" s="141"/>
       <c r="X24" s="142"/>
       <c r="Y24" s="72"/>
@@ -24257,7 +24191,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>69</v>
@@ -24269,10 +24203,10 @@
         <v>516</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>737</v>
+        <v>489</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>90</v>
@@ -24293,7 +24227,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="107" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N25" s="84" t="s">
         <v>77</v>
@@ -24303,12 +24237,8 @@
       <c r="Q25" s="85"/>
       <c r="R25" s="74"/>
       <c r="S25" s="73"/>
-      <c r="U25" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="V25" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U25" s="88"/>
+      <c r="V25" s="102"/>
       <c r="W25" s="141"/>
       <c r="X25" s="142"/>
       <c r="Y25" s="72"/>
@@ -25318,7 +25248,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="65" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B26" s="66" t="s">
         <v>69</v>
@@ -25330,10 +25260,10 @@
         <v>516</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>741</v>
+        <v>603</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>90</v>
@@ -25354,7 +25284,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="107" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="N26" s="84" t="s">
         <v>77</v>
@@ -25364,12 +25294,8 @@
       <c r="Q26" s="85"/>
       <c r="R26" s="74"/>
       <c r="S26" s="73"/>
-      <c r="U26" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="V26" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U26" s="88"/>
+      <c r="V26" s="102"/>
       <c r="W26" s="141"/>
       <c r="X26" s="142"/>
       <c r="Y26" s="72"/>
@@ -26379,7 +26305,7 @@
     </row>
     <row r="27" spans="1:1028" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="65" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B27" s="66" t="s">
         <v>69</v>
@@ -26391,10 +26317,10 @@
         <v>516</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G27" s="68" t="s">
         <v>90</v>
@@ -26415,7 +26341,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="107" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="N27" s="84" t="s">
         <v>77</v>
@@ -26426,20 +26352,22 @@
       <c r="R27" s="74"/>
       <c r="S27" s="73"/>
       <c r="T27"/>
-      <c r="U27" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="V27" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U27" s="88"/>
+      <c r="V27" s="102"/>
       <c r="W27" s="141"/>
       <c r="X27" s="142"/>
       <c r="Y27" s="72"/>
       <c r="Z27" s="87"/>
       <c r="AA27" s="74"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="89"/>
+      <c r="AB27" s="90">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="90">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="89" t="s">
+        <v>76</v>
+      </c>
       <c r="AE27" s="49"/>
       <c r="AF27" s="89"/>
       <c r="AG27" s="49"/>
@@ -26451,7 +26379,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="65" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>69</v>
@@ -26463,10 +26391,10 @@
         <v>516</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>727</v>
+        <v>489</v>
       </c>
       <c r="G28" s="68" t="s">
         <v>90</v>
@@ -26487,7 +26415,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="107" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="N28" s="84" t="s">
         <v>77</v>
@@ -26497,12 +26425,8 @@
       <c r="Q28" s="85"/>
       <c r="R28" s="74"/>
       <c r="S28" s="73"/>
-      <c r="U28" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="V28" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U28" s="88"/>
+      <c r="V28" s="102"/>
       <c r="W28" s="141"/>
       <c r="X28" s="142"/>
       <c r="Y28" s="72"/>
@@ -27512,7 +27436,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B29" s="66" t="s">
         <v>69</v>
@@ -27524,10 +27448,10 @@
         <v>516</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G29" s="68" t="s">
         <v>90</v>
@@ -27548,7 +27472,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="107" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="N29" s="84" t="s">
         <v>77</v>
@@ -27558,12 +27482,8 @@
       <c r="Q29" s="85"/>
       <c r="R29" s="74"/>
       <c r="S29" s="73"/>
-      <c r="U29" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="V29" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U29" s="88"/>
+      <c r="V29" s="102"/>
       <c r="W29" s="141"/>
       <c r="X29" s="142"/>
       <c r="Y29" s="72"/>
@@ -28573,7 +28493,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B30" s="66" t="s">
         <v>69</v>
@@ -28585,10 +28505,10 @@
         <v>516</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="G30" s="68" t="s">
         <v>90</v>
@@ -28609,7 +28529,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="107" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="N30" s="84" t="s">
         <v>77</v>
@@ -28619,12 +28539,8 @@
       <c r="Q30" s="85"/>
       <c r="R30" s="74"/>
       <c r="S30" s="73"/>
-      <c r="U30" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="V30" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U30" s="88"/>
+      <c r="V30" s="102"/>
       <c r="W30" s="141"/>
       <c r="X30" s="142"/>
       <c r="Y30" s="72"/>
@@ -29634,7 +29550,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="65" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>69</v>
@@ -29646,10 +29562,10 @@
         <v>516</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>737</v>
+        <v>489</v>
       </c>
       <c r="G31" s="68" t="s">
         <v>90</v>
@@ -29670,7 +29586,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="N31" s="84" t="s">
         <v>77</v>
@@ -29680,12 +29596,8 @@
       <c r="Q31" s="85"/>
       <c r="R31" s="74"/>
       <c r="S31" s="73"/>
-      <c r="U31" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="V31" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U31" s="88"/>
+      <c r="V31" s="102"/>
       <c r="W31" s="141"/>
       <c r="X31" s="142"/>
       <c r="Y31" s="72"/>
@@ -30695,7 +30607,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="65" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>69</v>
@@ -30707,10 +30619,10 @@
         <v>516</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>741</v>
+        <v>603</v>
       </c>
       <c r="G32" s="68" t="s">
         <v>90</v>
@@ -30731,7 +30643,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="107" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N32" s="84" t="s">
         <v>77</v>
@@ -30741,12 +30653,8 @@
       <c r="Q32" s="85"/>
       <c r="R32" s="74"/>
       <c r="S32" s="73"/>
-      <c r="U32" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="V32" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U32" s="88"/>
+      <c r="V32" s="102"/>
       <c r="W32" s="141"/>
       <c r="X32" s="142"/>
       <c r="Y32" s="72"/>
@@ -31756,7 +31664,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="65" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B33" s="66" t="s">
         <v>69</v>
@@ -31768,10 +31676,10 @@
         <v>516</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F33" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G33" s="68" t="s">
         <v>90</v>
@@ -31792,7 +31700,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="107" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="N33" s="84" t="s">
         <v>77</v>
@@ -31802,12 +31710,8 @@
       <c r="Q33" s="85"/>
       <c r="R33" s="74"/>
       <c r="S33" s="73"/>
-      <c r="U33" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="V33" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U33" s="88"/>
+      <c r="V33" s="102"/>
       <c r="W33" s="141"/>
       <c r="X33" s="142"/>
       <c r="Y33" s="72"/>
@@ -32817,7 +32721,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="65" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B34" s="66" t="s">
         <v>69</v>
@@ -32829,10 +32733,10 @@
         <v>516</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>727</v>
+        <v>489</v>
       </c>
       <c r="G34" s="68" t="s">
         <v>90</v>
@@ -32853,7 +32757,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="107" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="N34" s="84" t="s">
         <v>77</v>
@@ -32863,12 +32767,8 @@
       <c r="Q34" s="85"/>
       <c r="R34" s="74"/>
       <c r="S34" s="73"/>
-      <c r="U34" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="V34" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U34" s="88"/>
+      <c r="V34" s="102"/>
       <c r="W34" s="141"/>
       <c r="X34" s="142"/>
       <c r="Y34" s="72"/>
@@ -33878,7 +33778,7 @@
     </row>
     <row r="35" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="65" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B35" s="66" t="s">
         <v>69</v>
@@ -33890,10 +33790,10 @@
         <v>516</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G35" s="68" t="s">
         <v>90</v>
@@ -33914,7 +33814,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="107" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="N35" s="84" t="s">
         <v>77</v>
@@ -33924,12 +33824,8 @@
       <c r="Q35" s="85"/>
       <c r="R35" s="74"/>
       <c r="S35" s="73"/>
-      <c r="U35" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="V35" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U35" s="88"/>
+      <c r="V35" s="102"/>
       <c r="W35" s="141"/>
       <c r="X35" s="142"/>
       <c r="Y35" s="72"/>
@@ -34939,7 +34835,7 @@
     </row>
     <row r="36" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="65" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B36" s="66" t="s">
         <v>69</v>
@@ -34951,10 +34847,10 @@
         <v>516</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="G36" s="68" t="s">
         <v>90</v>
@@ -34975,7 +34871,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="107" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="N36" s="84" t="s">
         <v>77</v>
@@ -34986,12 +34882,8 @@
       <c r="R36" s="74"/>
       <c r="S36" s="73"/>
       <c r="T36"/>
-      <c r="U36" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="V36" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U36" s="88"/>
+      <c r="V36" s="102"/>
       <c r="W36" s="141"/>
       <c r="X36" s="142"/>
       <c r="Y36" s="72"/>
@@ -35011,7 +34903,7 @@
     </row>
     <row r="37" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="65" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B37" s="66" t="s">
         <v>69</v>
@@ -35023,10 +34915,10 @@
         <v>516</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F37" s="67" t="s">
-        <v>737</v>
+        <v>489</v>
       </c>
       <c r="G37" s="68" t="s">
         <v>90</v>
@@ -35047,7 +34939,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="107" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="N37" s="84" t="s">
         <v>77</v>
@@ -35058,12 +34950,8 @@
       <c r="R37" s="74"/>
       <c r="S37" s="73"/>
       <c r="T37"/>
-      <c r="U37" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="V37" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U37" s="88"/>
+      <c r="V37" s="102"/>
       <c r="W37" s="141"/>
       <c r="X37" s="142"/>
       <c r="Y37" s="72"/>
@@ -35083,7 +34971,7 @@
     </row>
     <row r="38" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="65" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>69</v>
@@ -35095,10 +34983,10 @@
         <v>516</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>741</v>
+        <v>603</v>
       </c>
       <c r="G38" s="68" t="s">
         <v>90</v>
@@ -35119,7 +35007,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="107" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="N38" s="84" t="s">
         <v>77</v>
@@ -35130,12 +35018,8 @@
       <c r="R38" s="74"/>
       <c r="S38" s="73"/>
       <c r="T38"/>
-      <c r="U38" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="V38" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U38" s="88"/>
+      <c r="V38" s="102"/>
       <c r="W38" s="141"/>
       <c r="X38" s="142"/>
       <c r="Y38" s="72"/>
@@ -35155,7 +35039,7 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="65" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>69</v>
@@ -35167,10 +35051,10 @@
         <v>516</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G39" s="68" t="s">
         <v>90</v>
@@ -35191,7 +35075,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="107" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="N39" s="84" t="s">
         <v>77</v>
@@ -35201,12 +35085,8 @@
       <c r="Q39" s="85"/>
       <c r="R39" s="74"/>
       <c r="S39" s="73"/>
-      <c r="U39" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="V39" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U39" s="88"/>
+      <c r="V39" s="102"/>
       <c r="W39" s="141"/>
       <c r="X39" s="142"/>
       <c r="Y39" s="72"/>
@@ -36216,7 +36096,7 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="65" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B40" s="66" t="s">
         <v>69</v>
@@ -36228,10 +36108,10 @@
         <v>516</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>727</v>
+        <v>489</v>
       </c>
       <c r="G40" s="68" t="s">
         <v>90</v>
@@ -36252,7 +36132,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="107" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="N40" s="84" t="s">
         <v>77</v>
@@ -36262,12 +36142,8 @@
       <c r="Q40" s="85"/>
       <c r="R40" s="74"/>
       <c r="S40" s="73"/>
-      <c r="U40" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="V40" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U40" s="88"/>
+      <c r="V40" s="102"/>
       <c r="W40" s="141"/>
       <c r="X40" s="142"/>
       <c r="Y40" s="72"/>
@@ -37277,7 +37153,7 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="65" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B41" s="66" t="s">
         <v>69</v>
@@ -37289,10 +37165,10 @@
         <v>516</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F41" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G41" s="68" t="s">
         <v>90</v>
@@ -37313,7 +37189,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="107" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="N41" s="84" t="s">
         <v>77</v>
@@ -37323,12 +37199,8 @@
       <c r="Q41" s="85"/>
       <c r="R41" s="74"/>
       <c r="S41" s="73"/>
-      <c r="U41" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="V41" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U41" s="88"/>
+      <c r="V41" s="102"/>
       <c r="W41" s="141"/>
       <c r="X41" s="142"/>
       <c r="Y41" s="72"/>
@@ -38338,7 +38210,7 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="65" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B42" s="66" t="s">
         <v>69</v>
@@ -38350,10 +38222,10 @@
         <v>516</v>
       </c>
       <c r="E42" s="67" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F42" s="67" t="s">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="G42" s="68" t="s">
         <v>90</v>
@@ -38374,7 +38246,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="107" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="N42" s="84" t="s">
         <v>77</v>
@@ -38384,12 +38256,8 @@
       <c r="Q42" s="85"/>
       <c r="R42" s="74"/>
       <c r="S42" s="73"/>
-      <c r="U42" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="V42" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U42" s="88"/>
+      <c r="V42" s="102"/>
       <c r="W42" s="141"/>
       <c r="X42" s="142"/>
       <c r="Y42" s="72"/>
@@ -39399,7 +39267,7 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="65" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B43" s="66" t="s">
         <v>69</v>
@@ -39411,10 +39279,10 @@
         <v>516</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>737</v>
+        <v>489</v>
       </c>
       <c r="G43" s="68" t="s">
         <v>90</v>
@@ -39435,7 +39303,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="107" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="N43" s="84" t="s">
         <v>77</v>
@@ -39445,12 +39313,8 @@
       <c r="Q43" s="85"/>
       <c r="R43" s="74"/>
       <c r="S43" s="73"/>
-      <c r="U43" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="V43" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U43" s="88"/>
+      <c r="V43" s="102"/>
       <c r="W43" s="141"/>
       <c r="X43" s="142"/>
       <c r="Y43" s="72"/>
@@ -40460,7 +40324,7 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="65" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B44" s="66" t="s">
         <v>69</v>
@@ -40472,10 +40336,10 @@
         <v>516</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F44" s="67" t="s">
-        <v>741</v>
+        <v>603</v>
       </c>
       <c r="G44" s="68" t="s">
         <v>90</v>
@@ -40496,7 +40360,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="107" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="N44" s="84" t="s">
         <v>77</v>
@@ -40506,12 +40370,8 @@
       <c r="Q44" s="85"/>
       <c r="R44" s="74"/>
       <c r="S44" s="73"/>
-      <c r="U44" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="V44" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U44" s="88"/>
+      <c r="V44" s="102"/>
       <c r="W44" s="141"/>
       <c r="X44" s="142"/>
       <c r="Y44" s="72"/>
@@ -41521,7 +41381,7 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="65" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B45" s="66" t="s">
         <v>69</v>
@@ -41533,10 +41393,10 @@
         <v>516</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F45" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G45" s="68" t="s">
         <v>90</v>
@@ -41557,7 +41417,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="107" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="N45" s="84" t="s">
         <v>77</v>
@@ -41567,12 +41427,8 @@
       <c r="Q45" s="85"/>
       <c r="R45" s="74"/>
       <c r="S45" s="73"/>
-      <c r="U45" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="V45" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U45" s="88"/>
+      <c r="V45" s="102"/>
       <c r="W45" s="141"/>
       <c r="X45" s="142"/>
       <c r="Y45" s="72"/>
@@ -42582,7 +42438,7 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="65" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>69</v>
@@ -42594,10 +42450,10 @@
         <v>516</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F46" s="67" t="s">
-        <v>727</v>
+        <v>489</v>
       </c>
       <c r="G46" s="68" t="s">
         <v>90</v>
@@ -42618,7 +42474,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="107" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="N46" s="84" t="s">
         <v>77</v>
@@ -42628,12 +42484,8 @@
       <c r="Q46" s="85"/>
       <c r="R46" s="74"/>
       <c r="S46" s="73"/>
-      <c r="U46" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="V46" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U46" s="88"/>
+      <c r="V46" s="102"/>
       <c r="W46" s="141"/>
       <c r="X46" s="142"/>
       <c r="Y46" s="72"/>
@@ -43643,7 +43495,7 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="65" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B47" s="66" t="s">
         <v>69</v>
@@ -43655,10 +43507,10 @@
         <v>516</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F47" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G47" s="68" t="s">
         <v>90</v>
@@ -43679,7 +43531,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="107" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="N47" s="84" t="s">
         <v>77</v>
@@ -43689,12 +43541,8 @@
       <c r="Q47" s="85"/>
       <c r="R47" s="74"/>
       <c r="S47" s="73"/>
-      <c r="U47" s="88" t="s">
-        <v>196</v>
-      </c>
-      <c r="V47" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U47" s="88"/>
+      <c r="V47" s="102"/>
       <c r="W47" s="141"/>
       <c r="X47" s="142"/>
       <c r="Y47" s="72"/>
@@ -44704,7 +44552,7 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="65" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B48" s="66" t="s">
         <v>69</v>
@@ -44716,10 +44564,10 @@
         <v>516</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F48" s="67" t="s">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="G48" s="68" t="s">
         <v>90</v>
@@ -44740,7 +44588,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="107" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="N48" s="84" t="s">
         <v>77</v>
@@ -44750,12 +44598,8 @@
       <c r="Q48" s="85"/>
       <c r="R48" s="74"/>
       <c r="S48" s="73"/>
-      <c r="U48" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="V48" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U48" s="88"/>
+      <c r="V48" s="102"/>
       <c r="W48" s="141"/>
       <c r="X48" s="142"/>
       <c r="Y48" s="72"/>
@@ -45765,7 +45609,7 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="65" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B49" s="66" t="s">
         <v>69</v>
@@ -45777,10 +45621,10 @@
         <v>516</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F49" s="67" t="s">
-        <v>737</v>
+        <v>489</v>
       </c>
       <c r="G49" s="68" t="s">
         <v>90</v>
@@ -45801,7 +45645,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="107" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="N49" s="84" t="s">
         <v>77</v>
@@ -45811,12 +45655,8 @@
       <c r="Q49" s="85"/>
       <c r="R49" s="74"/>
       <c r="S49" s="73"/>
-      <c r="U49" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="V49" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U49" s="88"/>
+      <c r="V49" s="102"/>
       <c r="W49" s="141"/>
       <c r="X49" s="142"/>
       <c r="Y49" s="72"/>
@@ -46826,7 +46666,7 @@
     </row>
     <row r="50" spans="1:1028" s="78" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="77" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B50" s="66" t="s">
         <v>69</v>
@@ -46838,10 +46678,10 @@
         <v>516</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F50" s="67" t="s">
-        <v>741</v>
+        <v>603</v>
       </c>
       <c r="G50" s="68" t="s">
         <v>90</v>
@@ -46862,7 +46702,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="107" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="N50" s="84" t="s">
         <v>77</v>
@@ -46873,12 +46713,8 @@
       <c r="R50" s="74"/>
       <c r="S50" s="73"/>
       <c r="T50"/>
-      <c r="U50" s="88" t="s">
-        <v>580</v>
-      </c>
-      <c r="V50" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U50" s="88"/>
+      <c r="V50" s="102"/>
       <c r="W50" s="141"/>
       <c r="X50" s="142"/>
       <c r="Y50" s="72"/>
@@ -46898,7 +46734,7 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="77" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B51" s="66" t="s">
         <v>69</v>
@@ -46910,10 +46746,10 @@
         <v>516</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F51" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G51" s="68" t="s">
         <v>90</v>
@@ -46934,7 +46770,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="107" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="N51" s="84" t="s">
         <v>77</v>
@@ -46944,12 +46780,8 @@
       <c r="Q51" s="85"/>
       <c r="R51" s="74"/>
       <c r="S51" s="73"/>
-      <c r="U51" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="V51" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U51" s="88"/>
+      <c r="V51" s="102"/>
       <c r="W51" s="141"/>
       <c r="X51" s="142"/>
       <c r="Y51" s="72"/>
@@ -47959,7 +47791,7 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="77" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B52" s="66" t="s">
         <v>69</v>
@@ -47971,10 +47803,10 @@
         <v>516</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F52" s="67" t="s">
-        <v>727</v>
+        <v>489</v>
       </c>
       <c r="G52" s="68" t="s">
         <v>90</v>
@@ -47995,7 +47827,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="107" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="N52" s="84" t="s">
         <v>77</v>
@@ -48005,12 +47837,8 @@
       <c r="Q52" s="85"/>
       <c r="R52" s="74"/>
       <c r="S52" s="73"/>
-      <c r="U52" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="V52" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U52" s="88"/>
+      <c r="V52" s="102"/>
       <c r="W52" s="141"/>
       <c r="X52" s="142"/>
       <c r="Y52" s="72"/>
@@ -49020,7 +48848,7 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="77" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B53" s="66" t="s">
         <v>69</v>
@@ -49032,10 +48860,10 @@
         <v>516</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F53" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G53" s="68" t="s">
         <v>90</v>
@@ -49056,7 +48884,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="107" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="N53" s="84" t="s">
         <v>77</v>
@@ -49066,12 +48894,8 @@
       <c r="Q53" s="85"/>
       <c r="R53" s="74"/>
       <c r="S53" s="73"/>
-      <c r="U53" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="V53" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U53" s="88"/>
+      <c r="V53" s="102"/>
       <c r="W53" s="141"/>
       <c r="X53" s="142"/>
       <c r="Y53" s="72"/>
@@ -50081,7 +49905,7 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="77" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B54" s="66" t="s">
         <v>69</v>
@@ -50093,10 +49917,10 @@
         <v>516</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>733</v>
+        <v>489</v>
       </c>
       <c r="G54" s="68" t="s">
         <v>90</v>
@@ -50117,7 +49941,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="107" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="N54" s="84" t="s">
         <v>77</v>
@@ -50127,12 +49951,8 @@
       <c r="Q54" s="85"/>
       <c r="R54" s="74"/>
       <c r="S54" s="73"/>
-      <c r="U54" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="V54" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U54" s="88"/>
+      <c r="V54" s="102"/>
       <c r="W54" s="141"/>
       <c r="X54" s="142"/>
       <c r="Y54" s="72"/>
@@ -51142,7 +50962,7 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="77" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B55" s="66" t="s">
         <v>69</v>
@@ -51154,10 +50974,10 @@
         <v>516</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F55" s="67" t="s">
-        <v>737</v>
+        <v>489</v>
       </c>
       <c r="G55" s="68" t="s">
         <v>90</v>
@@ -51178,7 +50998,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="107" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="N55" s="84" t="s">
         <v>77</v>
@@ -51188,12 +51008,8 @@
       <c r="Q55" s="85"/>
       <c r="R55" s="74"/>
       <c r="S55" s="73"/>
-      <c r="U55" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="V55" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U55" s="88"/>
+      <c r="V55" s="102"/>
       <c r="W55" s="141"/>
       <c r="X55" s="142"/>
       <c r="Y55" s="72"/>
@@ -52203,7 +52019,7 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="77" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B56" s="66" t="s">
         <v>69</v>
@@ -52215,10 +52031,10 @@
         <v>516</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F56" s="67" t="s">
-        <v>741</v>
+        <v>603</v>
       </c>
       <c r="G56" s="68" t="s">
         <v>90</v>
@@ -52239,7 +52055,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="107" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="N56" s="84" t="s">
         <v>77</v>
@@ -52249,12 +52065,8 @@
       <c r="Q56" s="85"/>
       <c r="R56" s="74"/>
       <c r="S56" s="73"/>
-      <c r="U56" s="88" t="s">
-        <v>221</v>
-      </c>
-      <c r="V56" s="102" t="s">
-        <v>73</v>
-      </c>
+      <c r="U56" s="88"/>
+      <c r="V56" s="102"/>
       <c r="W56" s="141"/>
       <c r="X56" s="142"/>
       <c r="Y56" s="72"/>
